--- a/Exporturi excel/CL/export_consum_silviutanase-2021.xlsx
+++ b/Exporturi excel/CL/export_consum_silviutanase-2021.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,6 +726,255 @@
         <v>85.00030026250002</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>silviutanase</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>010421000001</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1661</v>
+      </c>
+      <c r="G4" t="n">
+        <v>116</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.40182</v>
+      </c>
+      <c r="I4" t="n">
+        <v>162.61112</v>
+      </c>
+      <c r="J4" t="n">
+        <v>30.8961128</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7018</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.133342</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="P4" t="n">
+        <v>71.68059</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8.31494844</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.5798402036</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-116</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.90812</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-105.34192</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-20.0149648</v>
+      </c>
+      <c r="W4" t="n">
+        <v>66.28594843999998</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12.5943302036</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>78.88027864359998</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>silviutanase</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>010521000001</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1778</v>
+      </c>
+      <c r="G5" t="n">
+        <v>117</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.40182</v>
+      </c>
+      <c r="I5" t="n">
+        <v>164.01294</v>
+      </c>
+      <c r="J5" t="n">
+        <v>31.1624586</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.70785</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1344915</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="P5" t="n">
+        <v>71.68059</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>8.38662903</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.5934595157</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-117</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.90812</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-106.25004</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-20.1875076</v>
+      </c>
+      <c r="W5" t="n">
+        <v>66.85737903000002</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12.7029020157</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>79.56028104570002</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>silviutanase</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>010621000001</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G6" t="n">
+        <v>122</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.40182</v>
+      </c>
+      <c r="I6" t="n">
+        <v>171.02204</v>
+      </c>
+      <c r="J6" t="n">
+        <v>32.4941876</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7381</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.140239</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="P6" t="n">
+        <v>71.68059</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>8.745031979999998</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.6615560762</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-122</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.90812</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-110.79064</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-21.0502216</v>
+      </c>
+      <c r="W6" t="n">
+        <v>69.71453197999999</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13.2457610762</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>82.96029305619999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
